--- a/java/src/com/styletag/test_cases/InputData.xlsx
+++ b/java/src/com/styletag/test_cases/InputData.xlsx
@@ -10,7 +10,8 @@
   <sheets>
     <sheet name="Register" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Login" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="SearchKey" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SearchKey" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
@@ -52,21 +53,27 @@
     <t xml:space="preserve">Registration</t>
   </si>
   <si>
+    <t xml:space="preserve">test3456@styletag.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">styletag123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@prashanth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmazingTester</t>
+  </si>
+  <si>
     <t xml:space="preserve">test@prashanth.net</t>
   </si>
   <si>
-    <t xml:space="preserve">testing123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazing Tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@prashanth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmazingTester</t>
-  </si>
-  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -113,15 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3456@styletag.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">styletag123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test16@styletag.com</t>
   </si>
   <si>
     <t xml:space="preserve">Search Keyword</t>
@@ -149,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,6 +183,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,6 +252,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,18 +279,16 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.515306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,7 +322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -330,103 +338,103 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>12345678</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>560054</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9986255327</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>12345678</v>
@@ -434,7 +442,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>12345678</v>
@@ -442,20 +450,20 @@
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>12345</v>
@@ -463,15 +471,15 @@
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>12345678</v>
@@ -479,7 +487,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="test@prashanth.net"/>
+    <hyperlink ref="A3" r:id="rId1" display="test3456@styletag.com"/>
     <hyperlink ref="A4" r:id="rId2" display="test@prashanth"/>
     <hyperlink ref="A5" r:id="rId3" display="test@prashanth.net"/>
     <hyperlink ref="A6" r:id="rId4" display="test@prashanth.net"/>
@@ -506,48 +514,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="test3456@styletag.com"/>
-    <hyperlink ref="A12" r:id="rId2" display="test16@styletag.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="test3456@styletag.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -564,6 +574,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A3:B3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="test3456@styletag.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -572,32 +621,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
